--- a/data/input/employee_absence_data_49.xlsx
+++ b/data/input/employee_absence_data_49.xlsx
@@ -464,11 +464,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9908</v>
+        <v>27862</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maria Isis Borges</t>
+          <t>Luiz Fernando Machado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,56 +482,56 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45085</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>2803.38</v>
+        <v>3031.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>70239</v>
+        <v>35798</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Camila Guerra</t>
+          <t>Benjamim Machado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45085</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>8496.27</v>
+        <v>2345.18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>31448</v>
+        <v>83132</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kamilly Cavalcante</t>
+          <t>Manuela Rocha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -540,27 +540,27 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45103</v>
+        <v>45092</v>
       </c>
       <c r="G4" t="n">
-        <v>9716.08</v>
+        <v>9835.440000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>43301</v>
+        <v>83783</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Luna Rezende</t>
+          <t>Apollo Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -572,111 +572,111 @@
         <v>3</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45081</v>
+        <v>45094</v>
       </c>
       <c r="G5" t="n">
-        <v>6580.77</v>
+        <v>4086.58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6280</v>
+        <v>16656</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Srta. Brenda Fonseca</t>
+          <t>Dr. Bryan Cirino</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45084</v>
+        <v>45091</v>
       </c>
       <c r="G6" t="n">
-        <v>6676.3</v>
+        <v>8813.870000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>58137</v>
+        <v>16826</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Maria Eduarda Macedo</t>
+          <t>Beatriz Almeida</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45080</v>
+        <v>45084</v>
       </c>
       <c r="G7" t="n">
-        <v>10741.61</v>
+        <v>5391.5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3270</v>
+        <v>24515</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Beatriz Pires</t>
+          <t>Ravy Santos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45097</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>12249.68</v>
+        <v>5765.86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9331</v>
+        <v>13636</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lucas Sales</t>
+          <t>Dr. Noah Pastor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -685,71 +685,71 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45100</v>
+        <v>45091</v>
       </c>
       <c r="G9" t="n">
-        <v>5565.39</v>
+        <v>3595.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>20826</v>
+        <v>56176</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Diogo Silveira</t>
+          <t>Camila Gomes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45085</v>
+        <v>45097</v>
       </c>
       <c r="G10" t="n">
-        <v>3775.37</v>
+        <v>3621.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47774</v>
+        <v>1908</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>João Guilherme Vargas</t>
+          <t>Dra. Gabrielly Moura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>10930.73</v>
+        <v>3055.11</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_49.xlsx
+++ b/data/input/employee_absence_data_49.xlsx
@@ -464,40 +464,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27862</v>
+        <v>44770</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Fernando Machado</t>
+          <t>Dr. José Miguel Rios</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doenca</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45092</v>
+        <v>45087</v>
       </c>
       <c r="G2" t="n">
-        <v>3031.32</v>
+        <v>4140.83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35798</v>
+        <v>43203</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benjamim Machado</t>
+          <t>Sr. Otto Siqueira</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,167 +511,167 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45104</v>
+        <v>45091</v>
       </c>
       <c r="G3" t="n">
-        <v>2345.18</v>
+        <v>7042.56</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>83132</v>
+        <v>91448</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Manuela Rocha</t>
+          <t>Antonella Mendonça</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45092</v>
+        <v>45084</v>
       </c>
       <c r="G4" t="n">
-        <v>9835.440000000001</v>
+        <v>3457.78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>83783</v>
+        <v>13297</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Apollo Costa</t>
+          <t>Mathias Cavalcanti</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45094</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>4086.58</v>
+        <v>7149.7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16656</v>
+        <v>47475</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dr. Bryan Cirino</t>
+          <t>Dante Fonseca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45091</v>
+        <v>45087</v>
       </c>
       <c r="G6" t="n">
-        <v>8813.870000000001</v>
+        <v>8769.809999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16826</v>
+        <v>16137</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beatriz Almeida</t>
+          <t>Gustavo Henrique Fonseca</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45084</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>5391.5</v>
+        <v>8202.92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>24515</v>
+        <v>91747</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ravy Santos</t>
+          <t>Luna Caldeira</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operacoes</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45103</v>
+        <v>45087</v>
       </c>
       <c r="G8" t="n">
-        <v>5765.86</v>
+        <v>3825.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>13636</v>
+        <v>79012</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Noah Pastor</t>
+          <t>Ravi Lucca Marques</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,60 +681,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45091</v>
+        <v>45090</v>
       </c>
       <c r="G9" t="n">
-        <v>3595.17</v>
+        <v>8627.440000000001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>56176</v>
+        <v>76201</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Camila Gomes</t>
+          <t>Stephany Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doenca</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45097</v>
+        <v>45104</v>
       </c>
       <c r="G10" t="n">
-        <v>3621.74</v>
+        <v>3270.76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1908</v>
+        <v>15379</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Gabrielly Moura</t>
+          <t>Maitê Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G11" t="n">
-        <v>3055.11</v>
+        <v>8036.77</v>
       </c>
     </row>
   </sheetData>
